--- a/UseCaseIScenarij/PretragaPoSupermarketu.xlsx
+++ b/UseCaseIScenarij/PretragaPoSupermarketu.xlsx
@@ -106,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,11 +114,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -127,6 +142,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +451,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A3" sqref="A3:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,80 +472,93 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UseCaseIScenarij/PretragaPoSupermarketu.xlsx
+++ b/UseCaseIScenarij/PretragaPoSupermarketu.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t xml:space="preserve"> Baza podataka</t>
-  </si>
-  <si>
     <t>Scenarijo za pretragu po artiklu</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>2. Ažuriranje proizvoda i sortiranje po cijeni</t>
+  </si>
+  <si>
+    <t>Analiza sadržaja</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,99 +462,99 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
